--- a/Module 21 - Provisions, Contingent Liabilities and Contingent Assets.xlsx
+++ b/Module 21 - Provisions, Contingent Liabilities and Contingent Assets.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1069" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDB5AF8-B79D-41EE-A987-93D223557E8D}"/>
+  <xr:revisionPtr revIDLastSave="1101" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C053EC2-F6F6-4CAE-8AD5-6480A4AAD921}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="5415" windowHeight="11385" activeTab="5" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
+    <workbookView xWindow="1800" yWindow="-13530" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 21" sheetId="2" r:id="rId2"/>
-    <sheet name="WSE21.2" sheetId="5" r:id="rId3"/>
-    <sheet name="WSE21.3" sheetId="3" r:id="rId4"/>
-    <sheet name="WSE21.4" sheetId="4" r:id="rId5"/>
-    <sheet name="WSE21.5" sheetId="6" r:id="rId6"/>
+    <sheet name="WSE21.1" sheetId="7" r:id="rId3"/>
+    <sheet name="WSE21.2" sheetId="5" r:id="rId4"/>
+    <sheet name="WSE21.3" sheetId="3" r:id="rId5"/>
+    <sheet name="WSE21.4" sheetId="4" r:id="rId6"/>
+    <sheet name="WSE21.5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="307">
   <si>
     <t>Main</t>
   </si>
@@ -955,6 +956,45 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;did really well.  Got all the numbers right.  Just remember not to neglect the chat</t>
+  </si>
+  <si>
+    <t>Bromlee Lts</t>
+  </si>
+  <si>
+    <t>WSE21.1</t>
+  </si>
+  <si>
+    <t>Financial guarantee</t>
+  </si>
+  <si>
+    <t>As a result of signing the agreement, a legal obligation has been created to guarantee the subsidiary’s borrowings.</t>
+  </si>
+  <si>
+    <t>However, it is not probable that there will be an outflow of resources as the subsidiary company is in a sound financial state.</t>
+  </si>
+  <si>
+    <t>No provision is recognised; however, a contingent liability may be disclosed for the balance outstanding unless the likelihood of the subsidiary falling into financial difficulty is remote.</t>
+  </si>
+  <si>
+    <t>Outlet closure</t>
+  </si>
+  <si>
+    <t>As a result of advising staff and customers of the closure and a plan being in place, a constructive obligation has been created to restructure the company.</t>
+  </si>
+  <si>
+    <t>There is probable outflow of resources embodying economic benefits due to redundancies and other costs.</t>
+  </si>
+  <si>
+    <t>A provision will be recognised, assuming a reliable estimate can be made of the amount of the obligation.</t>
+  </si>
+  <si>
+    <t>Health and safety</t>
+  </si>
+  <si>
+    <t>On the basis of the solicitors’ expert opinion, there is a legal obligation resulting from a past event (the staff member being injured).</t>
+  </si>
+  <si>
+    <t>There is probable outflow of economic resource due to legal costs and potential damages on losing the case.</t>
   </si>
 </sst>
 </file>
@@ -1523,6 +1563,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35311</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35EC602-F16D-078B-0E81-10F0DFDACE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1104900"/>
+          <a:ext cx="3692911" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2040,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9794CF2-EC34-4FC7-B50A-30A211052956}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,31 +2145,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="18" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 21'!A1" display="Module 21" xr:uid="{330A69AD-5975-483B-A55B-292273F3AC0E}"/>
-    <hyperlink ref="C3" location="WSE21.3!A1" display="WSE21.3" xr:uid="{70DFB356-B192-4404-8EE3-ACF42FCF4815}"/>
-    <hyperlink ref="C4" location="WSE21.4!A1" display="WSE21.4" xr:uid="{B1A1FA29-B92D-483E-9A8E-1CA577CDB78D}"/>
-    <hyperlink ref="C2" location="WSE21.2!A1" display="WSE21.2" xr:uid="{FE0FC178-19E1-4B51-917C-CBCC0FE6C5F7}"/>
-    <hyperlink ref="C5" location="WSE21.5!A1" display="WSE21.5" xr:uid="{9C332D12-F005-40F3-85FF-787A76639E47}"/>
+    <hyperlink ref="C4" location="WSE21.3!A1" display="WSE21.3" xr:uid="{70DFB356-B192-4404-8EE3-ACF42FCF4815}"/>
+    <hyperlink ref="C5" location="WSE21.4!A1" display="WSE21.4" xr:uid="{B1A1FA29-B92D-483E-9A8E-1CA577CDB78D}"/>
+    <hyperlink ref="C3" location="WSE21.2!A1" display="WSE21.2" xr:uid="{FE0FC178-19E1-4B51-917C-CBCC0FE6C5F7}"/>
+    <hyperlink ref="C6" location="WSE21.5!A1" display="WSE21.5" xr:uid="{9C332D12-F005-40F3-85FF-787A76639E47}"/>
+    <hyperlink ref="C2" location="WSE21.1!A1" display="WSE21.1" xr:uid="{AFFC5E08-4E9B-43FA-B242-ED9CAE50E418}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2091,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D74D0-60B4-4239-934A-3E5593E5DAD4}">
   <dimension ref="A1:N341"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3274,11 +3369,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D735F0-8A6D-4472-A92F-949DCF0BF974}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{84BA44C1-6345-4DC5-9F21-874790611F4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589DF27C-A8C8-4658-8132-23DF6773EBF4}">
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4687,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5634780-0589-459F-9202-501F52B446F8}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4822,7 +5017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD5EB59-7FFB-437C-A97D-C52EDB0A8CA3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -5003,11 +5198,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B728F6B8-0266-45D8-8638-26CF96A6D903}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
